--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1976066.506010534</v>
+        <v>-1978954.4662807</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>153.5847532312541</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>102.6053215863865</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.72006486743015</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>113.2870337730224</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>235.500096002687</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>15.94830397803287</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>45.14380977505471</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>24.2671697729307</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>211.9154389188786</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>291.8572123306186</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>179.6815907201684</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.90975337974417</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>185.6816236402637</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>232.0473154092261</v>
+        <v>139.1584054594684</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>113.4877306469557</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>61.66004604094908</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>73.98898794535445</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>177.696569780335</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>247.9252424950642</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.0998442038081</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>235.8905539345552</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445521</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>781.1711973675267</v>
+        <v>722.0366015910304</v>
       </c>
       <c r="C2" t="n">
-        <v>412.2086804271149</v>
+        <v>722.0366015910304</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>722.0366015910304</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>722.0366015910304</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>311.0506968014228</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>311.0506968014228</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.912517095719</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1167.771037431648</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>168.3743290658416</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4522,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>490.2500993552354</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.712458167646</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>880.7499412272343</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1164.312709242129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>293.047981881067</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>124.1117989531601</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>124.1117989531601</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>124.1117989531601</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
         <v>99.5995062532301</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286581</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>257.3478788207</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>257.3478788207</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>257.3478788207</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.3478788207</v>
+        <v>293.047981881067</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1387.497891571678</v>
+        <v>2047.160969748086</v>
       </c>
       <c r="C8" t="n">
-        <v>1387.497891571678</v>
+        <v>1678.198452807675</v>
       </c>
       <c r="D8" t="n">
-        <v>1387.497891571678</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>106.6490864003569</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>510.1161994204024</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>649.4448552616556</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
         <v>1281.162666244967</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2072.442488527913</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="W8" t="n">
-        <v>2072.442488527913</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="X8" t="n">
-        <v>2072.442488527913</v>
+        <v>2047.160969748086</v>
       </c>
       <c r="Y8" t="n">
-        <v>1682.303156552101</v>
+        <v>2047.160969748086</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>972.6029207988471</v>
       </c>
       <c r="N9" t="n">
         <v>1640.147320825857</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.2011588521959</v>
+        <v>356.1107185029925</v>
       </c>
       <c r="C10" t="n">
-        <v>119.2011588521959</v>
+        <v>356.1107185029925</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>356.1107185029925</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>697.7705053114768</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>408.6183288891565</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>408.6183288891565</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>119.2011588521959</v>
+        <v>764.4604932427485</v>
       </c>
       <c r="X10" t="n">
-        <v>119.2011588521959</v>
+        <v>576.9032976465226</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.2011588521959</v>
+        <v>356.1107185029925</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,16 +5036,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.841029837709</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1521.040329916217</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1231.623159879256</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>1003.633608981239</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>782.841029837709</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5264,34 +5264,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138415</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859347</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>747.3584617859347</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>599.4453682035415</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138415</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>335.7491137930459</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>168.5530145079259</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2267.47159895366</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5348780504994</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y22" t="n">
-        <v>944.1833428807391</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6552,13 +6552,13 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6658,10 +6658,10 @@
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580123</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
         <v>2179.340199382518</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,7 +7123,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,25 +7354,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7637,25 +7637,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111707</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7831,13 +7831,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>31.78975210768602</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>275.2571720225999</v>
       </c>
       <c r="N9" t="n">
-        <v>176.8008973295432</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.029993810244098e-12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>229.1490884322265</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>107.6539388345233</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>344.5178737886234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>33.14692887354677</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>16.637547321141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986295</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>20.09032791460194</v>
+        <v>112.9792378643596</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>31.93331737597553</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>66.30572490086944</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>3.329716221309553</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.4848091482867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>50.29392045468899</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1142073.344609823</v>
+        <v>1142073.344609824</v>
       </c>
     </row>
     <row r="3">
@@ -26314,46 +26314,46 @@
         <v>64921.82232287325</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="G2" t="n">
         <v>80714.6599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900067</v>
       </c>
       <c r="J2" t="n">
         <v>82104.1769864284</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642841</v>
       </c>
       <c r="M2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.1769864284</v>
+      </c>
+      <c r="O2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="P2" t="n">
         <v>82104.17698642837</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642833</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642841</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642841</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682718</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682719</v>
+        <v>5677.536566682738</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682724</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="K4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.3958297762</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977627</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-719756.3271911874</v>
+        <v>-720185.8860577764</v>
       </c>
       <c r="C6" t="n">
         <v>-210677.3165400144</v>
       </c>
       <c r="D6" t="n">
-        <v>-366481.1226338094</v>
+        <v>-366481.1226338093</v>
       </c>
       <c r="E6" t="n">
-        <v>-797138.0978023957</v>
+        <v>-797172.8357278312</v>
       </c>
       <c r="F6" t="n">
-        <v>-26085.40642158921</v>
+        <v>-26120.14434702495</v>
       </c>
       <c r="G6" t="n">
-        <v>-26085.40642158926</v>
+        <v>-26120.14434702498</v>
       </c>
       <c r="H6" t="n">
-        <v>-26085.40642158921</v>
+        <v>-26120.14434702494</v>
       </c>
       <c r="I6" t="n">
-        <v>-26085.40642158927</v>
+        <v>-26120.14434702488</v>
       </c>
       <c r="J6" t="n">
-        <v>-230579.271883488</v>
+        <v>-230579.2718834879</v>
       </c>
       <c r="K6" t="n">
-        <v>-34728.33469726324</v>
+        <v>-34728.3346972632</v>
       </c>
       <c r="L6" t="n">
-        <v>-34728.33469726321</v>
+        <v>-34728.3346972632</v>
       </c>
       <c r="M6" t="n">
         <v>-158936.8454053217</v>
       </c>
       <c r="N6" t="n">
-        <v>-34728.33469726333</v>
+        <v>-34728.33469726321</v>
       </c>
       <c r="O6" t="n">
-        <v>-54156.05269089493</v>
+        <v>-54156.05269089501</v>
       </c>
       <c r="P6" t="n">
-        <v>-34728.33469726318</v>
+        <v>-34728.33469726324</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>274.2764312377385</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>221.3174511779706</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>338.7347376426501</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,13 +27664,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>341.0941288809989</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>121.1538782500005</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>40.22220440494945</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.87662933286197</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>190.0495099583006</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7057196384682</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>40.02803174877349</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>556.7959610899857</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>510.8679233250724</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,10 +33032,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>169.2687847673337</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33272,7 +33272,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,25 +33500,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>510.8679233250724</v>
+        <v>187.2159464875253</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>53.23848947473986</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>456.567612784827</v>
       </c>
       <c r="N9" t="n">
-        <v>377.4642727362752</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>425.4542490066523</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>379.5262112417391</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,10 +36680,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>27.13475084531539</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36920,7 +36920,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>379.5262112417391</v>
+        <v>55.87423440419198</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,22 +38099,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
